--- a/doc/Coding Standards.xlsx
+++ b/doc/Coding Standards.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -103,12 +103,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -117,9 +132,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,67 +436,67 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="30" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="30" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="30" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="30" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="30" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="30" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
